--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_8_row.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_8_row.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,330 +32,336 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="108">
-  <si>
-    <t>General Reaction and Sampling Platform (GRASP)</t>
-  </si>
-  <si>
-    <t>Unnamed: 1</t>
-  </si>
-  <si>
-    <t>Model name</t>
-  </si>
-  <si>
-    <t>toy_model1_input_valid_8_row</t>
-  </si>
-  <si>
-    <t>Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
-    <t>NLP solver (NLOPT, OPTI, FMINCON (default))</t>
-  </si>
-  <si>
-    <t>FMINCON</t>
-  </si>
-  <si>
-    <t>Number of exp. conditions (excluding reference state)</t>
-  </si>
-  <si>
-    <t>Number of model structures</t>
-  </si>
-  <si>
-    <t>Number of particles</t>
-  </si>
-  <si>
-    <t>Parallel mode (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Number of cores (ignored if Parallel mode disabled)</t>
-  </si>
-  <si>
-    <t>Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>Compute robust fluxes (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t>Final tolerance (in the case of ORACLE, set to 1)</t>
-  </si>
-  <si>
-    <t>rxn ID</t>
-  </si>
-  <si>
-    <t>m1</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>m4</t>
-  </si>
-  <si>
-    <t>m5</t>
-  </si>
-  <si>
-    <t>m6</t>
-  </si>
-  <si>
-    <t>m7</t>
-  </si>
-  <si>
-    <t>m8</t>
-  </si>
-  <si>
-    <t>m9</t>
-  </si>
-  <si>
-    <t>m10</t>
-  </si>
-  <si>
-    <t>m11</t>
-  </si>
-  <si>
-    <t>m12</t>
-  </si>
-  <si>
-    <t>m13</t>
-  </si>
-  <si>
-    <t>m14</t>
-  </si>
-  <si>
-    <t>m15</t>
-  </si>
-  <si>
-    <t>m16</t>
-  </si>
-  <si>
-    <t>m17</t>
-  </si>
-  <si>
-    <t>m18</t>
-  </si>
-  <si>
-    <t>m19</t>
-  </si>
-  <si>
-    <t>m20</t>
-  </si>
-  <si>
-    <t>r1</t>
-  </si>
-  <si>
-    <t>r2</t>
-  </si>
-  <si>
-    <t>r3</t>
-  </si>
-  <si>
-    <t>r4</t>
-  </si>
-  <si>
-    <t>r5</t>
-  </si>
-  <si>
-    <t>r6</t>
-  </si>
-  <si>
-    <t>r7</t>
-  </si>
-  <si>
-    <t>r8</t>
-  </si>
-  <si>
-    <t>r9</t>
-  </si>
-  <si>
-    <t>r10</t>
-  </si>
-  <si>
-    <t>r11</t>
-  </si>
-  <si>
-    <t>r12</t>
-  </si>
-  <si>
-    <t>r13</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Metabolite name</t>
-  </si>
-  <si>
-    <t>balanced?</t>
-  </si>
-  <si>
-    <t>active?</t>
-  </si>
-  <si>
-    <t>fixed?</t>
-  </si>
-  <si>
-    <t>measured?</t>
-  </si>
-  <si>
-    <t>reaction name</t>
-  </si>
-  <si>
-    <t>transportRxn?</t>
-  </si>
-  <si>
-    <t>modelled?</t>
-  </si>
-  <si>
-    <t>isoenzymes</t>
-  </si>
-  <si>
-    <t>met</t>
-  </si>
-  <si>
-    <t>rxn</t>
-  </si>
-  <si>
-    <t>∆Gr'_min (kJ/mol)</t>
-  </si>
-  <si>
-    <t>∆Gr'_max (kJ/mol)</t>
-  </si>
-  <si>
-    <t>min (M)</t>
-  </si>
-  <si>
-    <t>max (M)</t>
-  </si>
-  <si>
-    <t>Fluxes (umol/gCDW/h)</t>
-  </si>
-  <si>
-    <t>vref_mean</t>
-  </si>
-  <si>
-    <t>vref_std</t>
-  </si>
-  <si>
-    <t>vexp1_mean</t>
-  </si>
-  <si>
-    <t>vexp1_std</t>
-  </si>
-  <si>
-    <t>enzyme/rxn</t>
-  </si>
-  <si>
-    <t>MBo10_LB2</t>
-  </si>
-  <si>
-    <t>MBo10_meas2</t>
-  </si>
-  <si>
-    <t>MBo10_UB2</t>
-  </si>
-  <si>
-    <t>MBo10_LB2 (M)</t>
-  </si>
-  <si>
-    <t>MBo10_UB2 (M)</t>
-  </si>
-  <si>
-    <t>reaction ID</t>
-  </si>
-  <si>
-    <t>kinetic mechanism</t>
-  </si>
-  <si>
-    <t>substrate order</t>
-  </si>
-  <si>
-    <t>product order</t>
-  </si>
-  <si>
-    <t>promiscuous</t>
-  </si>
-  <si>
-    <t>inhibitors</t>
-  </si>
-  <si>
-    <t>activators</t>
-  </si>
-  <si>
-    <t>negative effector</t>
-  </si>
-  <si>
-    <t>positive effector</t>
-  </si>
-  <si>
-    <t>allosteric</t>
-  </si>
-  <si>
-    <t>subunits</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>substrateInhibOrderedBiBi</t>
-  </si>
-  <si>
-    <t>m3 m6</t>
-  </si>
-  <si>
-    <t>m5 m14</t>
-  </si>
-  <si>
-    <t>UniUniPromiscuous</t>
-  </si>
-  <si>
-    <t>m5 m6</t>
-  </si>
-  <si>
-    <t>m7 m10</t>
-  </si>
-  <si>
-    <t>r2 r5</t>
-  </si>
-  <si>
-    <t>OrdPromiscCompInhibIndep</t>
-  </si>
-  <si>
-    <t>m1 m7 m1 m10</t>
-  </si>
-  <si>
-    <t>m8 m11 m12 m12</t>
-  </si>
-  <si>
-    <t>r3 r6</t>
-  </si>
-  <si>
-    <t>orderedBiBi</t>
-  </si>
-  <si>
-    <t>m2 m8 </t>
-  </si>
-  <si>
-    <t>m9 m13</t>
-  </si>
-  <si>
-    <t>massAction</t>
-  </si>
-  <si>
-    <t>diffusion</t>
-  </si>
-  <si>
-    <t>fixedExchange</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="110">
+  <si>
+    <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy_model1_input_valid_8_row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORACLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMINCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP solver (linprog or gurobi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of model structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolite name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balanced?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measured?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transportRxn?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelled?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isoenzymes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_min (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxes (umol/gCDW/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vexp1_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vexp1_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enzyme/rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_meas2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinetic mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrate order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allosteric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrateInhibOrderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniUniPromiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7 m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2 r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OrdPromiscCompInhibIndep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1 m7 m1 m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8 m11 m12 m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3 r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2 m8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9 m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diffusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixedExchange</t>
   </si>
 </sst>
 </file>
@@ -363,7 +369,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -446,13 +452,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -488,15 +498,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K21" activeCellId="0" sqref="K21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -531,62 +541,62 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -594,21 +604,29 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -623,35 +641,35 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A5:B5 A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -668,7 +686,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -685,7 +703,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -702,7 +720,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -719,7 +737,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -736,7 +754,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
@@ -754,7 +772,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -769,32 +787,32 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -808,7 +826,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -822,7 +840,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -836,7 +854,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -850,7 +868,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -864,7 +882,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -878,7 +896,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -892,7 +910,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -906,7 +924,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -920,7 +938,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -934,7 +952,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -948,7 +966,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -962,7 +980,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -977,7 +995,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -992,32 +1010,32 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -1031,7 +1049,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1045,7 +1063,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1059,7 +1077,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1073,7 +1091,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1087,7 +1105,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -1101,7 +1119,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -1115,7 +1133,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -1129,7 +1147,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -1143,7 +1161,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -1157,7 +1175,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1171,7 +1189,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1185,7 +1203,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1199,7 +1217,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1213,7 +1231,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1227,7 +1245,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1241,7 +1259,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1255,7 +1273,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1269,7 +1287,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1283,7 +1301,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1298,7 +1316,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1313,74 +1331,74 @@
   </sheetPr>
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="A5:B5 A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.5263157894737"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1391,19 +1409,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1414,22 +1432,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1440,16 +1458,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1460,19 +1478,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1483,10 +1501,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1497,10 +1515,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1511,10 +1529,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1525,10 +1543,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1539,10 +1557,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1553,10 +1571,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1567,10 +1585,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1582,7 +1600,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1597,83 +1615,83 @@
   </sheetPr>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1738,7 +1756,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1803,7 +1821,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1868,7 +1886,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1933,7 +1951,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1998,7 +2016,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2063,7 +2081,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2128,7 +2146,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2193,7 +2211,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2258,7 +2276,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2323,7 +2341,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2388,7 +2406,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2453,7 +2471,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2519,7 +2537,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2534,41 +2552,41 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="A5:B5 D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2585,10 +2603,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2605,10 +2623,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2625,10 +2643,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2645,10 +2663,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2665,10 +2683,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2685,10 +2703,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2705,10 +2723,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2725,10 +2743,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2745,10 +2763,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2765,10 +2783,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2785,10 +2803,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2805,10 +2823,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2825,10 +2843,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2845,10 +2863,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2865,10 +2883,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2885,10 +2903,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2905,10 +2923,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2925,10 +2943,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2945,10 +2963,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2966,7 +2984,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2981,38 +2999,38 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A5:B5 A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -3023,10 +3041,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -3037,10 +3055,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3051,10 +3069,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3065,10 +3083,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -3079,10 +3097,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -3093,10 +3111,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -3107,10 +3125,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -3121,10 +3139,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -3135,10 +3153,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -3149,10 +3167,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -3163,10 +3181,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3177,10 +3195,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -3192,7 +3210,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3207,89 +3225,89 @@
   </sheetPr>
   <dimension ref="A2:A15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3304,124 +3322,124 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3436,124 +3454,124 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3568,29 +3586,29 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3601,7 +3619,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3612,7 +3630,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3623,7 +3641,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3634,7 +3652,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3645,7 +3663,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3656,7 +3674,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3667,7 +3685,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3678,7 +3696,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3689,7 +3707,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3700,7 +3718,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3711,7 +3729,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3722,7 +3740,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3734,7 +3752,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3749,29 +3767,29 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A5:B5 H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3782,7 +3800,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3793,7 +3811,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3804,7 +3822,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3815,7 +3833,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3826,7 +3844,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3837,7 +3855,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3848,7 +3866,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3859,7 +3877,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3870,7 +3888,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3881,7 +3899,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3892,7 +3910,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3903,7 +3921,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3914,7 +3932,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3925,7 +3943,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3936,7 +3954,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3947,7 +3965,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3958,7 +3976,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3969,7 +3987,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3980,7 +3998,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>
@@ -3992,7 +4010,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_8_row.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_8_row.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="104">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -46,13 +46,13 @@
     <t xml:space="preserve">toy_model1_input_valid_8_row</t>
   </si>
   <si>
-    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORACLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+    <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
   </si>
   <si>
     <t xml:space="preserve">FMINCON</t>
@@ -79,18 +79,9 @@
     <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
   </si>
   <si>
@@ -205,12 +196,6 @@
     <t xml:space="preserve">balanced?</t>
   </si>
   <si>
-    <t xml:space="preserve">active?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixed?</t>
-  </si>
-  <si>
     <t xml:space="preserve">measured?</t>
   </si>
   <si>
@@ -218,9 +203,6 @@
   </si>
   <si>
     <t xml:space="preserve">transportRxn?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelled?</t>
   </si>
   <si>
     <t xml:space="preserve">isoenzymes</t>
@@ -498,10 +480,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -517,24 +499,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -593,6 +575,9 @@
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -602,27 +587,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -642,7 +609,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A5:B5 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="B3 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -652,24 +619,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -686,7 +653,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -703,7 +670,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -720,7 +687,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -737,7 +704,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -754,7 +721,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
@@ -788,7 +755,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -798,21 +765,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -826,7 +793,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -840,7 +807,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -854,7 +821,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -868,7 +835,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -882,7 +849,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -896,7 +863,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -910,7 +877,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -924,7 +891,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -938,7 +905,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -952,7 +919,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -966,7 +933,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -980,7 +947,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1011,7 +978,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1021,21 +988,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -1049,7 +1016,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1063,7 +1030,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1077,7 +1044,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1091,7 +1058,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1105,7 +1072,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -1119,7 +1086,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -1133,7 +1100,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -1147,7 +1114,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -1161,7 +1128,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -1175,7 +1142,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1189,7 +1156,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1203,7 +1170,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1217,7 +1184,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1231,7 +1198,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1245,7 +1212,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1259,7 +1226,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1273,7 +1240,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1287,7 +1254,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1301,7 +1268,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1332,13 +1299,13 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="A5:B5 A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="B3 A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.1"/>
@@ -1348,57 +1315,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1409,19 +1376,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1432,22 +1399,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1458,16 +1425,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1478,19 +1445,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1501,10 +1468,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1515,10 +1482,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1529,10 +1496,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1543,10 +1510,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1557,10 +1524,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1571,10 +1538,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1585,10 +1552,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1616,7 +1583,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1626,72 +1593,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1756,7 +1723,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1821,7 +1788,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1886,7 +1853,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1951,7 +1918,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2016,7 +1983,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2081,7 +2048,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2146,7 +2113,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2211,7 +2178,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2276,7 +2243,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2341,7 +2308,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2406,7 +2373,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2471,7 +2438,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2550,434 +2517,309 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="A5:B5 D17"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2997,214 +2839,173 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A5:B5 A8"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3226,7 +3027,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3236,72 +3037,72 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3323,7 +3124,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3333,107 +3134,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3455,7 +3256,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3465,107 +3266,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3587,7 +3388,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3597,18 +3398,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3619,7 +3420,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3630,7 +3431,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3641,7 +3442,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3652,7 +3453,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3663,7 +3464,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3674,7 +3475,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3685,7 +3486,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3696,7 +3497,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3707,7 +3508,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3718,7 +3519,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3729,7 +3530,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3740,7 +3541,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3768,7 +3569,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A5:B5 H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="B3 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3778,18 +3579,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3800,7 +3601,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3811,7 +3612,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3822,7 +3623,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3833,7 +3634,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3844,7 +3645,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3855,7 +3656,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3866,7 +3667,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3877,7 +3678,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3888,7 +3689,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3899,7 +3700,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3910,7 +3711,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3921,7 +3722,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3932,7 +3733,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3943,7 +3744,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3954,7 +3755,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3965,7 +3766,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3976,7 +3777,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3987,7 +3788,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3998,7 +3799,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_8_row.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_8_row.xlsx
@@ -483,7 +483,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="Y9" activeCellId="0" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -536,7 +536,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -609,7 +609,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="B3 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -755,7 +755,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -978,7 +978,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1299,7 +1299,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="B3 A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1583,7 +1583,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2520,7 +2520,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2842,7 +2842,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3027,7 +3027,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3124,7 +3124,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3256,7 +3256,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3388,7 +3388,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3569,7 +3569,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="B3 H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_8_row.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_8_row.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="103">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t xml:space="preserve">balanced?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measured?</t>
   </si>
   <si>
     <t xml:space="preserve">reaction name</t>
@@ -447,12 +444,12 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -482,7 +479,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Y9" activeCellId="0" sqref="Y9"/>
     </sheetView>
   </sheetViews>
@@ -619,19 +616,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -765,16 +762,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -988,16 +985,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1315,40 +1312,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1356,13 +1353,13 @@
         <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>88</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>89</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>23</v>
@@ -1379,16 +1376,16 @@
         <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>93</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1402,16 +1399,16 @@
         <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>96</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>97</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>26</v>
@@ -1428,13 +1425,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1448,16 +1445,16 @@
         <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>93</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1471,7 +1468,7 @@
         <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1485,7 +1482,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1499,7 +1496,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1513,7 +1510,7 @@
         <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1527,7 +1524,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1541,7 +1538,7 @@
         <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1555,7 +1552,7 @@
         <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -2517,16 +2514,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2539,21 +2536,15 @@
       <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2561,13 +2552,10 @@
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2575,13 +2563,10 @@
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2589,13 +2574,10 @@
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2603,111 +2585,87 @@
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2715,13 +2673,10 @@
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2729,13 +2684,10 @@
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2743,13 +2695,10 @@
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2757,13 +2706,10 @@
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2771,13 +2717,10 @@
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2785,13 +2728,10 @@
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2799,13 +2739,10 @@
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2813,13 +2750,10 @@
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2856,20 +2790,20 @@
         <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -2880,7 +2814,7 @@
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -2891,7 +2825,7 @@
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -2902,7 +2836,7 @@
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -2913,7 +2847,7 @@
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -2924,7 +2858,7 @@
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -2935,7 +2869,7 @@
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -2946,7 +2880,7 @@
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -2957,7 +2891,7 @@
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -2968,7 +2902,7 @@
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -2979,7 +2913,7 @@
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -2990,7 +2924,7 @@
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -3001,7 +2935,7 @@
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -3134,7 +3068,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3266,7 +3200,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3398,13 +3332,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3579,13 +3513,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_8_row.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_8_row.xlsx
@@ -5,22 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="stoic" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="mets" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="rxns" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="splitRatios" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoMets" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="kinetics1" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="poolConst" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="thermo_ineq_constraints" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="thermoRxns" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermoMets" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="measRates" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="103">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -603,152 +602,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>-22.0149320730417</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1.10350536706976</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>-22.0149320730417</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1.10350536706976</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.285369137837419</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>2.12397436954052E-007</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0.285369137837419</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>2.12397436954052E-007</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.0578197638950879</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>3.18755368558865E-009</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0.0578197638950879</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>3.18755368558865E-009</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>-0.00439408376660814</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>3.33787220043099E-011</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>-0.00439408376660814</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>3.33787220043099E-011</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>6.84865633256387</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>2.00430304742416E-005</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>6.84865633256387</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>2.00430304742416E-005</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>-0.00242684925806694</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>6.60284204552005E-011</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>-0.00242684925806694</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>6.60284204552005E-011</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -967,7 +820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1288,7 +1141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2516,7 +2369,7 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -2958,9 +2811,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A15"/>
+  <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2971,72 +2824,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3187,138 +3075,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A22"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -3495,7 +3251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3751,4 +3507,150 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>-22.0149320730417</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1.10350536706976</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>-22.0149320730417</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1.10350536706976</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.285369137837419</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2.12397436954052E-007</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.285369137837419</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2.12397436954052E-007</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.0578197638950879</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3.18755368558865E-009</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.0578197638950879</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>3.18755368558865E-009</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>-0.00439408376660814</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>3.33787220043099E-011</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>-0.00439408376660814</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>3.33787220043099E-011</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>6.84865633256387</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2.00430304742416E-005</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>6.84865633256387</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2.00430304742416E-005</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>-0.00242684925806694</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>6.60284204552005E-011</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>-0.00242684925806694</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>6.60284204552005E-011</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_8_row.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_8_row.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="106">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
@@ -430,7 +439,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -441,6 +450,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -478,8 +491,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y9" activeCellId="0" sqref="Y9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -527,64 +540,78 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -605,7 +632,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -615,21 +642,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -643,7 +670,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -657,7 +684,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -671,7 +698,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -685,7 +712,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -699,7 +726,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -713,7 +740,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -727,7 +754,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -741,7 +768,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -755,7 +782,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -769,7 +796,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -783,7 +810,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -797,7 +824,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -828,7 +855,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -838,21 +865,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -866,7 +893,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -880,7 +907,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -894,7 +921,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -908,7 +935,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -922,7 +949,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -936,7 +963,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -950,7 +977,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -964,7 +991,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -978,7 +1005,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -992,7 +1019,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1006,7 +1033,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1020,7 +1047,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1034,7 +1061,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1048,7 +1075,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1062,7 +1089,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1076,7 +1103,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1090,7 +1117,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1104,7 +1131,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1118,7 +1145,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1149,7 +1176,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1165,57 +1192,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1226,19 +1253,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1249,22 +1276,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1275,16 +1302,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1295,19 +1322,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1318,10 +1345,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1332,10 +1359,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1346,10 +1373,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1360,10 +1387,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1374,10 +1401,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1388,10 +1415,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1402,10 +1429,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1433,7 +1460,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1443,72 +1470,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1573,7 +1600,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1638,7 +1665,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1703,7 +1730,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1768,7 +1795,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1833,7 +1860,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -1898,7 +1925,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1963,7 +1990,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2028,7 +2055,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2093,7 +2120,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2158,7 +2185,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2223,7 +2250,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2288,7 +2315,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2370,7 +2397,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2381,21 +2408,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2403,10 +2430,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2414,10 +2441,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2425,10 +2452,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2436,10 +2463,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2447,10 +2474,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2458,10 +2485,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2469,10 +2496,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2480,10 +2507,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2491,10 +2518,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2502,10 +2529,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2513,10 +2540,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2524,10 +2551,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2535,10 +2562,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2546,10 +2573,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2557,10 +2584,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2568,10 +2595,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2579,10 +2606,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2590,10 +2617,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2601,10 +2628,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2629,7 +2656,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2640,24 +2667,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2665,10 +2692,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2676,10 +2703,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2687,10 +2714,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2698,10 +2725,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -2709,10 +2736,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -2720,10 +2747,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -2731,10 +2758,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -2742,10 +2769,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -2753,10 +2780,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -2764,10 +2791,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -2775,10 +2802,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2786,10 +2813,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2813,8 +2840,8 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2824,107 +2851,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2946,7 +2973,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2956,107 +2983,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3078,7 +3105,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3088,18 +3115,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3110,7 +3137,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3121,7 +3148,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3132,7 +3159,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3143,7 +3170,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3154,7 +3181,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3165,7 +3192,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3176,7 +3203,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3187,7 +3214,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3198,7 +3225,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3209,7 +3236,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3220,7 +3247,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3231,7 +3258,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3259,7 +3286,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A6:B7 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3269,18 +3296,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3291,7 +3318,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3302,7 +3329,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3313,7 +3340,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3324,7 +3351,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3335,7 +3362,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3346,7 +3373,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3357,7 +3384,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3368,7 +3395,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3379,7 +3406,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3390,7 +3417,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3401,7 +3428,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3412,7 +3439,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3423,7 +3450,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3434,7 +3461,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3445,7 +3472,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3456,7 +3483,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3467,7 +3494,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3478,7 +3505,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3489,7 +3516,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>
@@ -3517,7 +3544,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A6:B7 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3527,24 +3554,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -3561,7 +3588,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -3578,7 +3605,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -3595,7 +3622,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -3612,7 +3639,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -3629,7 +3656,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
